--- a/DuLieuThongKe/ThongKeDoanhThuCacThangTrongNam2023.xlsx
+++ b/DuLieuThongKe/ThongKeDoanhThuCacThangTrongNam2023.xlsx
@@ -166,7 +166,7 @@
     <col min="6" max="6" width="19.3671875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="18.11328125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="21.91796875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.62890625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1049,22 +1049,22 @@
         <v>13</v>
       </c>
       <c r="E30" t="n" s="0">
-        <v>997640.0</v>
+        <v>1351990.0</v>
       </c>
       <c r="F30" t="n" s="0">
-        <v>0.0</v>
+        <v>1065000.0</v>
       </c>
       <c r="G30" t="n" s="0">
-        <v>897676.4705135226</v>
+        <v>151414.29498244822</v>
       </c>
       <c r="H30" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I30" t="n" s="0">
-        <v>99764.00148659945</v>
+        <v>135199.0020146221</v>
       </c>
       <c r="J30" t="n" s="0">
-        <v>199.5279998779297</v>
+        <v>376.7030029296875</v>
       </c>
     </row>
     <row r="31">
@@ -1136,22 +1136,22 @@
         <v>20</v>
       </c>
       <c r="E33" t="n" s="0">
-        <v>997640.0</v>
+        <v>1351990.0</v>
       </c>
       <c r="F33" t="n" s="0">
-        <v>0.0</v>
+        <v>1065000.0</v>
       </c>
       <c r="G33" t="n" s="0">
-        <v>897676.4705135226</v>
+        <v>151414.29498244822</v>
       </c>
       <c r="H33" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I33" t="n" s="0">
-        <v>99764.00148659945</v>
+        <v>135199.0020146221</v>
       </c>
       <c r="J33" t="n" s="0">
-        <v>199.5279998779297</v>
+        <v>376.7030029296875</v>
       </c>
     </row>
     <row r="34">
@@ -1287,22 +1287,22 @@
         <v>13</v>
       </c>
       <c r="E38" t="n" s="0">
-        <v>354350.0</v>
+        <v>0.0</v>
       </c>
       <c r="F38" t="n" s="0">
-        <v>1065000.0</v>
+        <v>0.0</v>
       </c>
       <c r="G38" t="n" s="0">
-        <v>-746262.1755310744</v>
+        <v>0.0</v>
       </c>
       <c r="H38" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I38" t="n" s="0">
-        <v>35435.00052802265</v>
+        <v>0.0</v>
       </c>
       <c r="J38" t="n" s="0">
-        <v>177.1750030517578</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -1374,22 +1374,22 @@
         <v>20</v>
       </c>
       <c r="E41" t="n" s="0">
-        <v>354350.0</v>
+        <v>0.0</v>
       </c>
       <c r="F41" t="n" s="0">
-        <v>1065000.0</v>
+        <v>0.0</v>
       </c>
       <c r="G41" t="n" s="0">
-        <v>-746262.1755310744</v>
+        <v>0.0</v>
       </c>
       <c r="H41" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I41" t="n" s="0">
-        <v>35435.00052802265</v>
+        <v>0.0</v>
       </c>
       <c r="J41" t="n" s="0">
-        <v>177.1750030517578</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
